--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3554311.137298345</v>
+        <v>3629840.80696315</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>48.31602096867638</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>50.21352282772106</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>28.51033041214308</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>307.0605760489983</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>137.4930623465105</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>40.28139784613012</v>
+        <v>88.25490562468522</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>215.628595666412</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>60.46179076613002</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.08467608327366</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>76.16765894089203</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>112.6185215999992</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>21.88658712315941</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.4257685752654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>190.8685020903241</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>111.8975681420275</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>36.31437750815326</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>187.1605068196037</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>32.50395556408402</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.02387792022258963</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>59.01413813332611</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>42.96758834642559</v>
       </c>
       <c r="H37" t="n">
-        <v>76.58425543584733</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.260961638389</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>85.12143428871688</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>95.21726345495478</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>165.4493282694855</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051997</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>131.6781577333165</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>24.29718497126903</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1413.169543948888</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C2" t="n">
-        <v>1413.169543948888</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.903845342138</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>669.1155927438936</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>258.129687954286</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4363,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>2189.908715988822</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1799.76938401301</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2515.500626187983</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2198.651349677682</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2051.761402179772</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y4" t="n">
-        <v>2697.149091018222</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362306</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C5" t="n">
-        <v>571.9594663958189</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>213.6937677890684</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.6310627346887</v>
+        <v>188.745875571094</v>
       </c>
       <c r="C7" t="n">
-        <v>263.6310627346887</v>
+        <v>188.745875571094</v>
       </c>
       <c r="D7" t="n">
-        <v>263.6310627346887</v>
+        <v>188.745875571094</v>
       </c>
       <c r="E7" t="n">
-        <v>263.6310627346887</v>
+        <v>188.745875571094</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4752,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y7" t="n">
-        <v>263.6310627346887</v>
+        <v>188.745875571094</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="D8" t="n">
-        <v>74.811886630977</v>
+        <v>1639.953585604245</v>
       </c>
       <c r="E8" t="n">
-        <v>74.811886630977</v>
+        <v>1254.165333006001</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>843.179428216393</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>425.2156201145799</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>702.7909275566628</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.5573625732399</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5023,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201016</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1185.240178049213</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1185.240178049213</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1185.240178049213</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>895.8230080122524</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>667.8334571142351</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K18" t="n">
-        <v>644.675512255521</v>
+        <v>2649.889045452865</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619851</v>
+        <v>2896.654173359329</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>3254.094659854632</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>3583.957287518665</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>4253.421048821324</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557071</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C19" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1365.733503358961</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1076.60486457252</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="W19" t="n">
-        <v>731.31772835508</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X19" t="n">
-        <v>731.31772835508</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y19" t="n">
-        <v>523.8169520164281</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095318</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>3158.474758001782</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>3751.31998203364</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>4081.182609697673</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>4360.72267491637</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1306.1198038</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1306.1198038</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1016.991165013558</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>1016.991165013558</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>727.5739949765974</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>727.5739949765974</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>506.7814158330673</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1051.027905301126</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>761.610735264165</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>761.610735264165</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>540.8181561206349</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6205,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.8982808624608</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6415,19 +6417,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>644.1080300429516</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>354.6908600059909</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X28" t="n">
-        <v>354.6908600059909</v>
+        <v>709.4529700088208</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.8982808624608</v>
+        <v>709.4529700088208</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6488,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>3446.276123502708</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>860.7301020851612</v>
+        <v>4036.63275513288</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>3867.696572204973</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V31" t="n">
-        <v>1042.378566915401</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W31" t="n">
-        <v>1042.378566915401</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="X31" t="n">
-        <v>1042.378566915401</v>
+        <v>4036.63275513288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1042.378566915401</v>
+        <v>4036.63275513288</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,25 +6688,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,31 +6721,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>3630.300225833441</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>3630.300225833441</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>3630.300225833441</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>3630.300225833441</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3630.300225833441</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1340.085404217832</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U34" t="n">
-        <v>1050.956765431391</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V34" t="n">
-        <v>796.2722772255036</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="W34" t="n">
-        <v>506.8551071885429</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>4032.741269807211</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>3811.948690663681</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,25 +6940,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6974,7 +6976,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,7 +7034,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>731.0291971045608</v>
+        <v>4061.516185047361</v>
       </c>
       <c r="C37" t="n">
-        <v>731.0291971045608</v>
+        <v>4061.516185047361</v>
       </c>
       <c r="D37" t="n">
-        <v>580.9125576922251</v>
+        <v>3911.399545635025</v>
       </c>
       <c r="E37" t="n">
-        <v>432.9994641098319</v>
+        <v>3911.399545635025</v>
       </c>
       <c r="F37" t="n">
-        <v>286.1095166119215</v>
+        <v>3764.509598137115</v>
       </c>
       <c r="G37" t="n">
-        <v>286.1095166119215</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.446367141521</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="W37" t="n">
-        <v>731.0291971045608</v>
+        <v>4282.308764190891</v>
       </c>
       <c r="X37" t="n">
-        <v>731.0291971045608</v>
+        <v>4282.308764190891</v>
       </c>
       <c r="Y37" t="n">
-        <v>731.0291971045608</v>
+        <v>4061.516185047361</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7184,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7211,7 +7213,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.7175987609742</v>
+        <v>3922.894617924886</v>
       </c>
       <c r="C40" t="n">
-        <v>506.7814158330673</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>4236.865415579183</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>4150.884168822903</v>
       </c>
       <c r="W40" t="n">
-        <v>786.0822064765186</v>
+        <v>4150.884168822903</v>
       </c>
       <c r="X40" t="n">
-        <v>786.0822064765186</v>
+        <v>3922.894617924886</v>
       </c>
       <c r="Y40" t="n">
-        <v>786.0822064765186</v>
+        <v>3922.894617924886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>860.7301020851612</v>
+        <v>3865.49302637503</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>3865.49302637503</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>3865.49302637503</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>3570.689985294726</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294726</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294726</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625195</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636324</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403507</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S43" t="n">
-        <v>1331.795736952361</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T43" t="n">
-        <v>1331.795736952361</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U43" t="n">
-        <v>1331.795736952361</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V43" t="n">
-        <v>1331.795736952361</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="W43" t="n">
-        <v>1042.378566915401</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="X43" t="n">
-        <v>1042.378566915401</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="Y43" t="n">
-        <v>1042.378566915401</v>
+        <v>3961.672080369934</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7636,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3483.698004998766</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C46" t="n">
-        <v>3483.698004998766</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929846</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.149147719352</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U46" t="n">
-        <v>4148.02050893291</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V46" t="n">
-        <v>3893.336020727023</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="W46" t="n">
-        <v>3893.336020727023</v>
+        <v>3981.892396122776</v>
       </c>
       <c r="X46" t="n">
-        <v>3665.346469829006</v>
+        <v>3981.892396122776</v>
       </c>
       <c r="Y46" t="n">
-        <v>3665.346469829006</v>
+        <v>3761.099816979246</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142018</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>50.62661940943519</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>288.4091825776734</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>283.6093329825487</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>43.65987261462425</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.30500338171971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>142.4169944112028</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>108.92903945839</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>199.6609739352298</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.15888477682941</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.052307893279192</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>140.2400751818005</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9324435904746</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>38.54914856943341</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>219.633687759744</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.6857774688146</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>107.4794303300515</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>64.30500338171987</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>123.525980116952</v>
       </c>
       <c r="H37" t="n">
-        <v>72.3295729316888</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.57101854354826</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>167.0162090351111</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>84.61471672698252</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>32.47148171411774</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>48.15382244862084</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3182880469433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="G2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>703852.3075278762</v>
+      </c>
+      <c r="J2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>703852.3075278762</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.307527876</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278761</v>
       </c>
       <c r="M2" t="n">
         <v>703852.3075278759</v>
@@ -26350,10 +26352,10 @@
         <v>703852.307527876</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.898095428667148e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.049881055743234e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,10 +26432,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26444,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.2321866235</v>
+        <v>-99522.2321866237</v>
       </c>
       <c r="C6" t="n">
         <v>490445.6470279208</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279207</v>
+        <v>490445.6470279206</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539193</v>
+        <v>64530.33751539238</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922883</v>
+        <v>589690.3739922888</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922888</v>
+        <v>589690.373992288</v>
       </c>
       <c r="H6" t="n">
         <v>589690.3739922887</v>
       </c>
       <c r="I6" t="n">
+        <v>589690.373992289</v>
+      </c>
+      <c r="J6" t="n">
+        <v>413267.1547996957</v>
+      </c>
+      <c r="K6" t="n">
+        <v>589690.373992289</v>
+      </c>
+      <c r="L6" t="n">
         <v>589690.3739922887</v>
       </c>
-      <c r="J6" t="n">
-        <v>413267.154799696</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>454889.3587584514</v>
+      </c>
+      <c r="N6" t="n">
+        <v>589690.3739922886</v>
+      </c>
+      <c r="O6" t="n">
         <v>589690.3739922887</v>
       </c>
-      <c r="L6" t="n">
-        <v>589690.3739922888</v>
-      </c>
-      <c r="M6" t="n">
-        <v>454889.3587584513</v>
-      </c>
-      <c r="N6" t="n">
-        <v>589690.3739922887</v>
-      </c>
-      <c r="O6" t="n">
-        <v>589690.3739922885</v>
-      </c>
       <c r="P6" t="n">
-        <v>589690.3739922885</v>
+        <v>589690.373992289</v>
       </c>
     </row>
   </sheetData>
@@ -26741,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26802,13 +26804,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>334.4178206948042</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5706471930739</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>24.37936745074313</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>138.7994718469078</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>58.21231572200929</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>244.4373077257513</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>105.1396501768011</v>
+        <v>57.16614239824602</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>108.2941770979451</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>190.7623767421593</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>4.038073871640645</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.212400893528402e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382552</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>361.0509964599016</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>598.8335596281398</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>546.5043485321269</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>532.9342021211278</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>565.9730352236569</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>326.0235748557325</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3629840.80696315</v>
+        <v>3622823.79207144</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.31602096867638</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>224.5548550837428</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>307.0605760489983</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>189.062927182356</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>88.25490562468522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.4638972269085</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>138.3038958997677</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>215.628595666412</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>46.80807769362081</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.08467608327366</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>76.16765894089203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664958</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274071</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>21.88658712315941</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>36.31437750815369</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.8685020903241</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>111.8975681420275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>187.1605068196037</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
-        <v>0.02387792022258963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>59.01413813332611</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>49.38162151975428</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>42.96758834642559</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>85.12143428871688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.21726345495478</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.6781577333165</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>770.969123535386</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>402.0066065949742</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>852.1958518702625</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.7731851199076</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.515311311824</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2056.335593115397</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2056.335593115397</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.745875571094</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>188.745875571094</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>188.745875571094</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>188.745875571094</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.745875571094</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1998.219284210995</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C8" t="n">
-        <v>1998.219284210995</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1639.953585604245</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1254.165333006001</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>843.179428216393</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>425.2156201145799</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.219284210995</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940983</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117052</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137948</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.7909275566628</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.358329063101</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>809.2953582963253</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>809.2953582963253</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.358329063101</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452865</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359329</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>3254.094659854632</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N18" t="n">
-        <v>3583.957287518665</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821324</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557071</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5700,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1365.733503358961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>1076.60486457252</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V19" t="n">
-        <v>821.9203763666327</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W19" t="n">
-        <v>821.9203763666327</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="X19" t="n">
-        <v>593.9308254686154</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>593.9308254686154</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095318</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.474758001782</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>3751.31998203364</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>4081.182609697673</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>4360.72267491637</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.7814158330673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>506.7814158330673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1306.1198038</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1306.1198038</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1016.991165013558</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1016.991165013558</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>727.5739949765974</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>727.5739949765974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.7814158330673</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1051.027905301126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>761.610735264165</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>761.610735264165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.8181561206349</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,25 +6247,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>462.7283310300498</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.8045051785811</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W28" t="n">
-        <v>898.5039869983195</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X28" t="n">
-        <v>709.4529700088208</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>709.4529700088208</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4036.63275513288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3867.696572204973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4326.074044281177</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4326.074044281177</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4036.656874244216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4036.63275513288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4036.63275513288</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3630.300225833441</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C34" t="n">
-        <v>3630.300225833441</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D34" t="n">
-        <v>3630.300225833441</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>3630.300225833441</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3630.300225833441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1449.035844780373</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1449.035844780373</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.85945949167</v>
+        <v>1225.250429569879</v>
       </c>
       <c r="U34" t="n">
-        <v>4260.730820705228</v>
+        <v>936.1217907834367</v>
       </c>
       <c r="V34" t="n">
-        <v>4260.730820705228</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W34" t="n">
-        <v>4260.730820705228</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X34" t="n">
-        <v>4032.741269807211</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y34" t="n">
-        <v>3811.948690663681</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="35">
@@ -6931,46 +6931,46 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4061.516185047361</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>4061.516185047361</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>3911.399545635025</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>3911.399545635025</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>3764.509598137115</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.725934227851</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>4571.725934227851</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>4282.308764190891</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>4282.308764190891</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>4061.516185047361</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7186,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3922.894617924886</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4525.994054365625</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4236.865415579183</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4150.884168822903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4150.884168822903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3922.894617924886</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>3922.894617924886</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7435,28 +7435,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3865.49302637503</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>3865.49302637503</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>3865.49302637503</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>3570.689985294726</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294726</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294726</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929844</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4182.464659513464</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4182.464659513464</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4182.464659513464</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>3961.672080369934</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,31 +7669,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3628.091576844583</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4525.994054365623</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4271.309566159736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>3981.892396122776</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>3981.892396122776</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>3761.099816979246</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M18" t="n">
-        <v>50.62661940943519</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445214</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>288.4091825776734</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>297.2466435761025</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>176.717654749845</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>283.6093329825487</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>43.65987261462425</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.08849621799477</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.4169944112028</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>199.6609739352298</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>189.3952778808835</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>7.052307893279192</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>140.2400751818005</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>38.54914856943341</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
-        <v>225.6857774688146</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>107.4794303300515</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>60.58273088403852</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>123.525980116952</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>167.0162090351111</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.61471672698252</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.15382244862084</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278762</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278762</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="G2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>703852.3075278762</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278762</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="N2" t="n">
-        <v>703852.307527876</v>
-      </c>
       <c r="O2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
         <v>703852.3075278761</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.898095428667148e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
-        <v>1.049881055743234e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687064</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.60758687064</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.6075868707</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687066</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.2321866237</v>
+        <v>-99522.23218662356</v>
       </c>
       <c r="C6" t="n">
+        <v>490445.647027921</v>
+      </c>
+      <c r="D6" t="n">
         <v>490445.6470279208</v>
       </c>
-      <c r="D6" t="n">
-        <v>490445.6470279206</v>
-      </c>
       <c r="E6" t="n">
-        <v>64530.33751539238</v>
+        <v>63555.74625567038</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922888</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.373992288</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.3739922887</v>
+        <v>588715.7827325666</v>
       </c>
       <c r="I6" t="n">
-        <v>589690.373992289</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996957</v>
+        <v>412292.5635399744</v>
       </c>
       <c r="K6" t="n">
-        <v>589690.373992289</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="L6" t="n">
-        <v>589690.3739922887</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="M6" t="n">
-        <v>454889.3587584514</v>
+        <v>453914.7674987298</v>
       </c>
       <c r="N6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="O6" t="n">
-        <v>589690.3739922887</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="P6" t="n">
-        <v>589690.373992289</v>
+        <v>588715.7827325672</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,40 +26737,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541004</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26804,13 +26804,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,10 +26992,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.4178206948042</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>182.3211906579687</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.37936745074313</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>58.21231572200929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>62.16124032593328</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>57.16614239824602</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712398</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>108.2941770979451</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>120.5017245654301</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.038073871640645</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.212400893528402e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,10 +33116,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M15" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M18" t="n">
-        <v>361.0509964599016</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8335596281398</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>546.5043485321269</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>327.2930933377842</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>532.9342021211278</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
@@ -37633,16 +37633,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>565.9730352236569</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504664</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>326.0235748557325</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3622823.79207144</v>
+        <v>3627763.054920472</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>344.4049534467079</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>224.5548550837428</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>34.33095576894261</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>189.062927182356</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>118.9315118908886</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>14.4638972269085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>138.3038958997677</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>46.80807769362081</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>279.3977360013904</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>62.74236544294377</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>59.77945773664958</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>36.31437750815369</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869253</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>218.5843930538365</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.38162151975428</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056519</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>961.9499065944426</v>
       </c>
       <c r="D2" t="n">
-        <v>1237.984104468507</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>852.1958518702625</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
         <v>709.5665374816297</v>
@@ -4482,10 +4482,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>892.3727756203639</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>506.5845230221196</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2056.335593115397</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2056.335593115397</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.566937845283</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.566937845283</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2095034521276</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834948</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064341</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064341</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940983</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201016</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,28 +5296,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>381.3857973138602</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>160.5932181703301</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488389</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>644.108030042952</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059914</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,7 +5831,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
         <v>674.428562457161</v>
@@ -5913,10 +5913,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5943,16 +5943,16 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6171,7 +6171,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
         <v>1382.222354598086</v>
@@ -6223,25 +6223,25 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6250,22 +6250,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>241.980548233671</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1449.035844780373</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1449.035844780373</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1225.250429569879</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>936.1217907834367</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>681.4373025775499</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>392.0201325405893</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,7 +7162,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,22 +7189,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,13 +7359,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
         <v>614.6238123952637</v>
@@ -7374,10 +7374,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7435,13 +7435,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298014</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>20.63789864135424</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>33.08849621799477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>7.125262335200603</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>117.0896147389935</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.3581855871784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>189.3952778808835</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>14.74113413690273</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>7.125262335200631</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.58273088403852</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338525</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="F2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="G2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>703852.3075278762</v>
       </c>
-      <c r="H2" t="n">
-        <v>703852.3075278755</v>
-      </c>
       <c r="I2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="J2" t="n">
+        <v>703852.3075278763</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.3075278762</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.307527876</v>
       </c>
       <c r="L2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="O2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278759</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22174.60758687067</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687064</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687073</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662356</v>
+        <v>-99522.23218662359</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.647027921</v>
+        <v>490445.6470279208</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279208</v>
+        <v>490445.6470279209</v>
       </c>
       <c r="E6" t="n">
-        <v>63555.74625567038</v>
+        <v>64432.87838942054</v>
       </c>
       <c r="F6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="G6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="H6" t="n">
-        <v>588715.7827325666</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="I6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="J6" t="n">
-        <v>412292.5635399744</v>
+        <v>413169.6956737239</v>
       </c>
       <c r="K6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663168</v>
       </c>
       <c r="L6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="M6" t="n">
-        <v>453914.7674987298</v>
+        <v>454791.8996324795</v>
       </c>
       <c r="N6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663167</v>
       </c>
       <c r="O6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="P6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663165</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170865</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,17 +26968,17 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>10.27808817397511</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>182.3211906579687</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>372.5450899727688</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>62.16124032593328</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>29.68396112732371</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>226.9689958712398</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>98.95375469339433</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>120.5017245654301</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,10 +33116,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36211,16 +36211,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>353.8324720393672</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
